--- a/data_samples/archived/week-3/next-week.xlsx
+++ b/data_samples/archived/week-3/next-week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\2021-week-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\week-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE32C2FC-6103-49C4-AD09-1A49274E57BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A19350A-B4D0-41B7-85CA-107C23A36D4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   <dimension ref="A1:H2278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,10 +603,10 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" s="5">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="H2" s="5">
-        <v>3.35</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>1.62</v>
       </c>
       <c r="H3" s="5">
-        <v>2.2999999999999998</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -647,10 +647,10 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" s="5">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H4" s="5">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -669,10 +669,10 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" s="5">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="H5" s="5">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -691,10 +691,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" s="5">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="H6" s="5">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -713,10 +713,10 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" s="5">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="H7" s="5">
-        <v>3.6</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -735,10 +735,10 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" s="5">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H8" s="5">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -757,10 +757,10 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" s="5">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H9" s="5">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -779,10 +779,10 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" s="5">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H10" s="5">
-        <v>2</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
